--- a/230428 DatesRates.xlsx
+++ b/230428 DatesRates.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\IdeaProjectsDrafts\Java230419_Draft_1_Case_3_1_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\IdeaProjectsDrafts\000000_Archive\Java230419_Draft_1_Case_3_1_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Минус пустые" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>01/03/2023    74.8932</t>
   </si>
@@ -108,13 +109,1171 @@
   </si>
   <si>
     <t>75.4577</t>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"01/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>74.8932</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"02/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.2513</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"03/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.4729</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"04/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.4592</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"07/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.4728</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"08/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.4577</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"10/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.9028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"11/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.9406</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"14/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.4609</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"15/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.1927</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"16/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>75.7457</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"17/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>76.4095</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"18/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>76.6044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"21/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>77.2422</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"22/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>76.8373</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"23/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>76.9561</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"24/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>76.3072</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"25/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>76.4479</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"28/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>76.5662</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"29/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>76.5939</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"30/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>76.9781</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>"31/03/2023"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>77.0863</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +1281,32 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC7832"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6897BB"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,9 +1329,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,16 +1617,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +1634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -454,7 +1642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -462,7 +1650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -470,17 +1658,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>44990</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>44991</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -488,7 +1676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -496,117 +1684,117 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>44997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>44998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>45004</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>45005</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>45011</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
         <v>45012</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -614,4 +1802,262 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>44990</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>44991</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>44994</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>44997</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>44998</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>45004</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>45005</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>